--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/炼焦、燃气及石油加工业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/炼焦、燃气及石油加工业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.055049583931603</v>
+        <v>0.051024088517442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.047247991220439</v>
+        <v>0.042723360360187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.034373842879815</v>
+        <v>0.037791500879553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.160847456312294</v>
+        <v>0.164936599572418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003145122589128</v>
+        <v>0.003226696641036</v>
       </c>
       <c r="G2" t="n">
-        <v>0.030440299433249</v>
+        <v>0.033494843444205</v>
       </c>
       <c r="H2" t="n">
-        <v>0.070934310395302</v>
+        <v>0.068686543074531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.279244304516159</v>
+        <v>0.268844405617431</v>
       </c>
       <c r="J2" t="n">
-        <v>0.145964544407453</v>
+        <v>0.138045319731466</v>
       </c>
       <c r="K2" t="n">
-        <v>0.191758031152461</v>
+        <v>0.172345463367801</v>
       </c>
       <c r="L2" t="n">
-        <v>0.024910936025577</v>
+        <v>0.023277867717935</v>
       </c>
       <c r="M2" t="n">
-        <v>0.111324618226346</v>
+        <v>0.110175496477153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.826710750107021</v>
+        <v>0.887816795983103</v>
       </c>
       <c r="O2" t="n">
-        <v>0.177672367357424</v>
+        <v>0.160410178326831</v>
       </c>
       <c r="P2" t="n">
-        <v>0.050085250490616</v>
+        <v>0.049838866080849</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.029069351536221</v>
+        <v>0.031478934575272</v>
       </c>
       <c r="R2" t="n">
-        <v>0.032352764094389</v>
+        <v>0.033023273425822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.051024088517442</v>
+        <v>0.044446699145457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.042723360360187</v>
+        <v>0.039762572406403</v>
       </c>
       <c r="D3" t="n">
-        <v>0.037791500879553</v>
+        <v>0.031580494376501</v>
       </c>
       <c r="E3" t="n">
-        <v>0.164936599572418</v>
+        <v>0.156802777510888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003226696641036</v>
+        <v>0.007779552024091</v>
       </c>
       <c r="G3" t="n">
-        <v>0.033494843444205</v>
+        <v>0.057908303967019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.068686543074531</v>
+        <v>0.066040439741474</v>
       </c>
       <c r="I3" t="n">
-        <v>0.268844405617431</v>
+        <v>0.172357276306795</v>
       </c>
       <c r="J3" t="n">
-        <v>0.138045319731466</v>
+        <v>0.146960401345066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.172345463367801</v>
+        <v>0.13476468298593</v>
       </c>
       <c r="L3" t="n">
-        <v>0.023277867717935</v>
+        <v>0.020166383123132</v>
       </c>
       <c r="M3" t="n">
-        <v>0.110175496477153</v>
+        <v>0.087070720621888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.887816795983103</v>
+        <v>0.874537082245324</v>
       </c>
       <c r="O3" t="n">
-        <v>0.160410178326831</v>
+        <v>0.138633550578274</v>
       </c>
       <c r="P3" t="n">
-        <v>0.049838866080849</v>
+        <v>0.085875216770728</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.031478934575272</v>
+        <v>0.025879178888673</v>
       </c>
       <c r="R3" t="n">
-        <v>0.033023273425822</v>
+        <v>0.035253032770691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.044446699145457</v>
+        <v>0.059238139708728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.039762572406403</v>
+        <v>0.061176191385622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.031580494376501</v>
+        <v>0.056881626306464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.156802777510888</v>
+        <v>0.209579900938317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007779552024091</v>
+        <v>0.011292412412914</v>
       </c>
       <c r="G4" t="n">
-        <v>0.057908303967019</v>
+        <v>0.109822254831558</v>
       </c>
       <c r="H4" t="n">
-        <v>0.066040439741474</v>
+        <v>0.113103764902227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.172357276306795</v>
+        <v>0.246819056679777</v>
       </c>
       <c r="J4" t="n">
-        <v>0.146960401345066</v>
+        <v>0.19407616784167</v>
       </c>
       <c r="K4" t="n">
-        <v>0.13476468298593</v>
+        <v>0.176927589732357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.020166383123132</v>
+        <v>0.032936292825133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.087070720621888</v>
+        <v>0.129281331498962</v>
       </c>
       <c r="N4" t="n">
-        <v>0.874537082245324</v>
+        <v>0.6689831648753291</v>
       </c>
       <c r="O4" t="n">
-        <v>0.138633550578274</v>
+        <v>0.13775086566843</v>
       </c>
       <c r="P4" t="n">
-        <v>0.085875216770728</v>
+        <v>0.137772976751098</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.025879178888673</v>
+        <v>0.030787973390879</v>
       </c>
       <c r="R4" t="n">
-        <v>0.035253032770691</v>
+        <v>0.070080692548204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.059238139708728</v>
+        <v>0.011175509182058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.061176191385622</v>
+        <v>0.11793026673268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.056881626306464</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.209579900938317</v>
-      </c>
+        <v>0.091360941210403</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.011292412412914</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.109822254831558</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.113103764902227</v>
-      </c>
+        <v>0.002504028911862</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.246819056679777</v>
+        <v>0.128376820377012</v>
       </c>
       <c r="J5" t="n">
-        <v>0.19407616784167</v>
+        <v>0.718851891112503</v>
       </c>
       <c r="K5" t="n">
-        <v>0.176927589732357</v>
+        <v>0.120627829986162</v>
       </c>
       <c r="L5" t="n">
-        <v>0.032936292825133</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.129281331498962</v>
-      </c>
+        <v>0.030546002254392</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.6689831648753291</v>
+        <v>0.313431369582017</v>
       </c>
       <c r="O5" t="n">
-        <v>0.13775086566843</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.137772976751098</v>
-      </c>
+        <v>0.083377685970089</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.030787973390879</v>
+        <v>0.019230958806553</v>
       </c>
       <c r="R5" t="n">
-        <v>0.070080692548204</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.011175509182058</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.11793026673268</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.091360941210403</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002504028911862</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.128376820377012</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.718851891112503</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.120627829986162</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.030546002254392</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.313431369582017</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.083377685970089</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.019230958806553</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.066159060515233</v>
       </c>
     </row>
